--- a/legendre_out/DATA/a1/a1IntegrandDataPoints2.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandDataPoints2.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.501073863434506e-12</v>
+        <v>2.873058775290684e-12</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220932045186813e-12</v>
+        <v>2.584337985237104e-12</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>2.188551636406599e-12</v>
+        <v>2.388915120793842e-12</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.938367933552083e-12</v>
+        <v>2.208293658424031e-12</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.952171229002966e-12</v>
+        <v>2.135231812553693e-12</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.949915973733297e-12</v>
+        <v>2.073075447746872e-12</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.781347466838467e-12</v>
+        <v>1.976370909370463e-12</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.527543677759058e-12</v>
+        <v>1.6649885905406e-12</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.363621001137682e-12</v>
+        <v>1.413285428867613e-12</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>8.722033462028806e-13</v>
+        <v>9.579994931080946e-13</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>5.06287040540952e-13</v>
+        <v>5.690727571695996e-13</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,2287 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>4.098377936376027e-13</v>
+        <v>4.225779047963302e-13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.686414373908955</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.226990852166467e-13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.687271360698501</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.245180575861967e-12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.689071032956547</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.163377043068945e-12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.689928019746092</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.174348758055165e-12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.690699307856684</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.159619609502778e-12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.691641993325183</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.161597354548489e-12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.692498980114729</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.253722322324397e-12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.693270268225319</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.699282768583568e-12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.694127255014865</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.070399668179811e-12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.695841228593956</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.524057646182436e-12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.697555202173048</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.653768136470933e-12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.699354874431093</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.403175988858085e-12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.701068848010184</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.235601988563665e-12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.70286852026823</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.254811432619185e-12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.703468411020912</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.275303560262509e-12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.704496795168366</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.17772498606193e-12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.706125070068503</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.046713428311234e-12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.707839043647593</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.894133856356625e-12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.709638715905639</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.787439715591062e-12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.71135268948473</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.651302392719278e-12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.713066663063821</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.602308346387592e-12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.714609239285003</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.42515374717459e-12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.716494610222004</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.21000187917187e-12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.718122885122139</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.017766336079146e-12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.719836858701231</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.456637320610906e-13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.720693845490776</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.571070546784672e-13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.721636530959276</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7.092352799291043e-13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.723350504538367</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.262640787445912e-13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.725064478117458</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.876537742938154e-13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.729178014707276</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.974315242392962e-13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.73337724997605</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5.51232521796466e-13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.737747882602732</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.317004846493406e-13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.754973317072596</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.973124001985012e-13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.772113052863507</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.747599523063692e-13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.789167089975462</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.708244604157221e-13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.797908355228826</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.551850734992115e-13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.806478223124282</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.423524237012877e-13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.814876693661827</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.774196979110575e-13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.823360862878328</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.695214138801976e-13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.82773149550501</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.653902712002918e-13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.832102128131692</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.556087443404931e-13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.840586297348192</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.527967340315109e-13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.847442191664556</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.022562813887343e-13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.854383784659876</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.708852941576785e-13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.856183456917921</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.052204731652699e-13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.857811731818057</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.939135593270127e-13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.859611404076103</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.161100932197229e-13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.86201096708683</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.512335189312273e-13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.866295901034558</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.69592400667433e-13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.875037166287922</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.817398250713475e-13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.876751139867013</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.438860513976996e-13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.879236401556695</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.415299826963594e-13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.883521335504422</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.935247109286556e-13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.887891968131104</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.418831596203933e-13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.891491312647195</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.762299222126574e-13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.896376137347605</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.025890132711023e-13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.900746769974288</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.309115120356427e-13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.908973843153924</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.875017856978296e-13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.917886505765197</v>
+      </c>
+      <c r="C72" t="n">
+        <v>9.316202593836775e-14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.926370674981698</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.913319284513911e-14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.934854844198199</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8.698532608502463e-14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.943510410772608</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.085542353145618e-13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.952251676025972</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5.76283039058549e-13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.960564447884564</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.603077283034639e-12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.969305713137928</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.653467761806227e-12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.977618484996519</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.232942455532128e-12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.982160514981111</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.287759436128192e-13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.986274051570929</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5.519824873869649e-13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.994843919466384</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6.204046663195295e-13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.012069353936249</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.017006636852817e-13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.020724920510658</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.963074320178672e-13</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.02903769236925</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.660077001809056e-13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.046263126839114</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.047535381207068e-13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.063402862630025</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.043330403730885e-13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.080542598420934</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.002007259813149e-13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.084998929726572</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.043962508594194e-13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.08816978084789</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6.055388172859446e-13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.097682334211846</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.409290151591247e-13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.101967268159573</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.25379471324724e-13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.106423599465209</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.918700008080702e-13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.114907768681709</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.406580628606274e-13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.123306239219255</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8.757934076752513e-13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.131961805793665</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.314173220772392e-13</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.133847176730665</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.779543161401135e-13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.136503835778257</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.998642730257741e-13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.140617372368075</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.442240556043945e-13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.149015842905621</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9.954075214341368e-14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.166241277375486</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9.533812272957773e-14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.180210162045077</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9.550852991561927e-14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.200435050278351</v>
+      </c>
+      <c r="C103" t="n">
+        <v>9.087904257903242e-14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.209004918173807</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9.143760585820094e-14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.21774618342717</v>
+      </c>
+      <c r="C105" t="n">
+        <v>8.765531121198101e-14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.226230352643671</v>
+      </c>
+      <c r="C106" t="n">
+        <v>8.424968327206857e-14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.231543670738853</v>
+      </c>
+      <c r="C107" t="n">
+        <v>8.579933117245392e-14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.234971617897036</v>
+      </c>
+      <c r="C108" t="n">
+        <v>8.57505063136236e-14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.24071342938699</v>
+      </c>
+      <c r="C109" t="n">
+        <v>8.368676827030981e-14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.249111899924536</v>
+      </c>
+      <c r="C110" t="n">
+        <v>8.06311737667246e-14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.2521970523669</v>
+      </c>
+      <c r="C111" t="n">
+        <v>8.245538639158575e-14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.257767466498946</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.67604258287532e-14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.262138099125628</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.810501153831891e-14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.264537662136355</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.708064211309506e-14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.267280019862901</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.783216432773115e-14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.269079692120946</v>
+      </c>
+      <c r="C116" t="n">
+        <v>8.183523670660309e-14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.271479255131674</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.620042436752826e-14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.273021831352856</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.691435334262823e-14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.281677397927266</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.408877575372786e-14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.286305126590811</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.714032391264339e-14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.29024726582272</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.274519389683297e-14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.298731435039221</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.131482839025743e-14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.303359163702766</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.550376584286308e-14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.307472700292585</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.870660140665171e-14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.309957961982268</v>
+      </c>
+      <c r="C125" t="n">
+        <v>8.788010940579989e-14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.310129359340176</v>
+      </c>
+      <c r="C126" t="n">
+        <v>8.712494764267194e-14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.311757634240313</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.065766051131088e-13</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.31604256818804</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.651822775967347e-13</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.318613528556677</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.223668313065921e-13</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.320584598172632</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.186745754236802e-13</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.322898462504404</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.039581912227538e-13</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.325555121551995</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.961653463336288e-13</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.327954684562723</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.916927168404889e-13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.330782740968223</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.776672557700361e-13</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.33318230397895</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.579246759320573e-13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.337638635284587</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.151268818203857e-13</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.341752171874406</v>
+      </c>
+      <c r="C137" t="n">
+        <v>8.100520074596089e-14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.350407738448815</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.516952241427639e-13</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.354692672396543</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.441445699139441e-13</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.358634811628452</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.450071587938259e-13</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.366947583487043</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.247444240265802e-13</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.371918106866407</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.222345894553851e-13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.375088957987725</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.136880758306105e-13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.377745617035317</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.753657157516699e-13</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.379545289293363</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.63939745898657e-13</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.380487974761863</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.655551065901633e-13</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.380830769477681</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.588984761534285e-13</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.381087865514544</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.602930089425977e-13</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.382973236451544</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.305528018143469e-13</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.384687210030635</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.530109073422423e-13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.386401183609727</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.21157665056746e-13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.388029458509863</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.019081049341165e-13</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.389057842657317</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.002273743526698e-13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.389743432088954</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3.769578506618246e-13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.392314392457591</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.493191123176775e-13</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.396599326405318</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.79015886331131e-13</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.400884260353045</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.932981028003667e-13</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.404912098263909</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.073358932757531e-13</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.406111879769273</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.125106021854884e-13</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.4094541282485</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.019066329811242e-14</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.413824760875183</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.27475921357224e-14</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.41622432388591</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.461775688484179e-14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.418795284254546</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.344266746723519e-14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.421623340660047</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.432456189353731e-14</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.423337314239138</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5.594667086906777e-14</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.424194301028683</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.611283109167987e-14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.429336221765956</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.786955872222442e-14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.431392990060865</v>
+      </c>
+      <c r="C168" t="n">
+        <v>6.024794882657989e-14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.440477050030048</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.674033528778694e-14</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.457445388463049</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.978235567399684e-14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.474756521611869</v>
+      </c>
+      <c r="C171" t="n">
+        <v>7.036072453570594e-14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.491896257402779</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9.181498821107539e-14</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.500037631903461</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.267990326246953e-13</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.503122784345824</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.348444314443194e-13</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.509121691872643</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.816043445342491e-13</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.517520162410189</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.268221654030355e-13</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.521890795036872</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.316469746462726e-13</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.526175728984599</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.414431421418948e-13</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.530460662932327</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.708719896583377e-13</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.534574199522145</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3.576707927526296e-13</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.539030530827781</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.145515802923177e-13</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.543486862133419</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.186341658944098e-13</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.545800726465191</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.897006799041427e-13</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.549914263055009</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.595969263785054e-13</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.551628236634101</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.456874273556284e-13</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.553942100965873</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.275734844181526e-13</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.558912624345237</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.064870500222267e-13</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.562940462256101</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.963189180822192e-13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.56688260148801</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.044739486653644e-13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.571424631472602</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.35359365179107e-13</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.575623866741375</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9.219299060715542e-14</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.580080198047011</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6.800019507632837e-14</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.58402233727892</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.992895876642789e-14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.588478668584557</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.33731136673665e-14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.588650065942466</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.310921456098731e-14</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.592078013100648</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.64719533232558e-14</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.593277794606012</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.531998482455974e-14</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.593534890642876</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.471922006063043e-14</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.596534344406285</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.637420905914646e-14</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.597819824590603</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.303438351562794e-14</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.601504867785649</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.475973286754249e-14</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.603133142685785</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5.25649311258635e-14</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.604932814943831</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.154031851316537e-14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.606646788522922</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.08161670420562e-14</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.608446460780968</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.974049884601251e-14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.610160434360059</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.957760193110059e-14</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.611617311902286</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.897256229818323e-14</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.615987944528968</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.226806628673906e-14</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.620529974513559</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.48080126066154e-14</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.622929537524286</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.271197974217732e-14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.623272332240105</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.395786740373841e-14</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.623786524313832</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.249393374740622e-14</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.625586196571877</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.165292127250688e-14</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.628928445051105</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.077304545137325e-14</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.631670802777651</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.060086721819469e-14</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.64049776670997</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.080289593487688e-14</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.649667525358106</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.916038238831688e-14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.658494489290425</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.664044133412172e-14</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.667921343975426</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.65034481510176e-14</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.671263592454653</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.7413442315163e-14</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a1IntegrandDataPoints2.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandDataPoints2.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.873058775290684e-12</v>
+        <v>2.885931173594402e-12</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>2.584337985237104e-12</v>
+        <v>2.55748948953178e-12</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>2.388915120793842e-12</v>
+        <v>2.408124765971299e-12</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>2.208293658424031e-12</v>
+        <v>2.163221647799013e-12</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>2.135231812553693e-12</v>
+        <v>2.136027835528162e-12</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>2.073075447746872e-12</v>
+        <v>2.105965702527777e-12</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.976370909370463e-12</v>
+        <v>1.942165264024755e-12</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.6649885905406e-12</v>
+        <v>1.666921052456929e-12</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.413285428867613e-12</v>
+        <v>1.455306379314787e-12</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>9.579994931080946e-13</v>
+        <v>9.565743446114435e-13</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>5.690727571695996e-13</v>
+        <v>5.369687816916352e-13</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>4.225779047963302e-13</v>
+        <v>4.161198506378278e-13</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>9.226990852166467e-13</v>
+        <v>9.138803543613485e-13</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>1.245180575861967e-12</v>
+        <v>1.246691141203757e-12</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>1.163377043068945e-12</v>
+        <v>1.151699516826212e-12</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>1.174348758055165e-12</v>
+        <v>1.18253518545907e-12</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>1.159619609502778e-12</v>
+        <v>1.165217508127416e-12</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>1.161597354548489e-12</v>
+        <v>1.165479696080833e-12</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>1.253722322324397e-12</v>
+        <v>1.251020202796556e-12</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>1.699282768583568e-12</v>
+        <v>1.697006784454826e-12</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>2.070399668179811e-12</v>
+        <v>2.054440516816706e-12</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>2.524057646182436e-12</v>
+        <v>2.542230385001017e-12</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>2.653768136470933e-12</v>
+        <v>2.653239811079375e-12</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>2.403175988858085e-12</v>
+        <v>2.382990961354792e-12</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>2.235601988563665e-12</v>
+        <v>2.321783138842015e-12</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>2.254811432619185e-12</v>
+        <v>2.273391930716693e-12</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>2.275303560262509e-12</v>
+        <v>2.303936113066756e-12</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>2.17772498606193e-12</v>
+        <v>2.169437726924274e-12</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>2.046713428311234e-12</v>
+        <v>2.04606506341247e-12</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>1.894133856356625e-12</v>
+        <v>1.892398599587851e-12</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>1.787439715591062e-12</v>
+        <v>1.810247556764388e-12</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>1.651302392719278e-12</v>
+        <v>1.659475611139424e-12</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>1.602308346387592e-12</v>
+        <v>1.615826302742392e-12</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>1.42515374717459e-12</v>
+        <v>1.39582973311967e-12</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.21000187917187e-12</v>
+        <v>1.228232412719378e-12</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>1.017766336079146e-12</v>
+        <v>1.037323905326221e-12</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>8.456637320610906e-13</v>
+        <v>8.468836528080703e-13</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>9.571070546784672e-13</v>
+        <v>9.698674709735741e-13</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>7.092352799291043e-13</v>
+        <v>7.003419467861871e-13</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>7.262640787445912e-13</v>
+        <v>7.285676896365379e-13</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>6.876537742938154e-13</v>
+        <v>6.943204235542226e-13</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>5.974315242392962e-13</v>
+        <v>5.963410671512069e-13</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>5.51232521796466e-13</v>
+        <v>5.537259536635451e-13</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>5.317004846493406e-13</v>
+        <v>5.202575877331629e-13</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>3.973124001985012e-13</v>
+        <v>4.003710469043001e-13</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>3.747599523063692e-13</v>
+        <v>3.76108414479848e-13</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>3.708244604157221e-13</v>
+        <v>3.628460045999781e-13</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>3.551850734992115e-13</v>
+        <v>3.61175019650727e-13</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>3.423524237012877e-13</v>
+        <v>3.438639537218553e-13</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>2.774196979110575e-13</v>
+        <v>2.784025311559533e-13</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>2.695214138801976e-13</v>
+        <v>2.854725679406985e-13</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>1.653902712002918e-13</v>
+        <v>1.569433725919475e-13</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>1.556087443404931e-13</v>
+        <v>1.632156391164959e-13</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>1.527967340315109e-13</v>
+        <v>1.604299546394662e-13</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>2.022562813887343e-13</v>
+        <v>2.216264714443885e-13</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>2.708852941576785e-13</v>
+        <v>2.620449020613221e-13</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>3.052204731652699e-13</v>
+        <v>3.038880947109471e-13</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.939135593270127e-13</v>
+        <v>2.931578704800868e-13</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>3.161100932197229e-13</v>
+        <v>3.181624216206354e-13</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>3.512335189312273e-13</v>
+        <v>3.517247501521211e-13</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>3.69592400667433e-13</v>
+        <v>3.699329124951228e-13</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>3.817398250713475e-13</v>
+        <v>3.828302151125272e-13</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>4.438860513976996e-13</v>
+        <v>4.458595455516092e-13</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>4.415299826963594e-13</v>
+        <v>4.369983486783921e-13</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>3.935247109286556e-13</v>
+        <v>3.809648704448566e-13</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>3.418831596203933e-13</v>
+        <v>3.615119813238023e-13</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>3.762299222126574e-13</v>
+        <v>3.815061266341122e-13</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>3.025890132711023e-13</v>
+        <v>3.08510014207289e-13</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>2.309115120356427e-13</v>
+        <v>2.31281415851612e-13</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>2.875017856978296e-13</v>
+        <v>2.845010065739346e-13</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>9.316202593836775e-14</v>
+        <v>8.785907799386672e-14</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>6.913319284513911e-14</v>
+        <v>8.021002864871285e-14</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>8.698532608502463e-14</v>
+        <v>8.67913470149633e-14</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>2.085542353145618e-13</v>
+        <v>2.102282356612937e-13</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>5.76283039058549e-13</v>
+        <v>5.762255931224857e-13</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>1.603077283034639e-12</v>
+        <v>1.598822690463212e-12</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>1.653467761806227e-12</v>
+        <v>1.683234140816257e-12</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>1.232942455532128e-12</v>
+        <v>1.218151212585423e-12</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>6.287759436128192e-13</v>
+        <v>6.326826969602565e-13</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>5.519824873869649e-13</v>
+        <v>5.535420100650368e-13</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>6.204046663195295e-13</v>
+        <v>6.200606775469664e-13</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>6.017006636852817e-13</v>
+        <v>6.020437776791066e-13</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>3.963074320178672e-13</v>
+        <v>3.980072893850414e-13</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>2.660077001809056e-13</v>
+        <v>2.647870378155729e-13</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>2.047535381207068e-13</v>
+        <v>2.030008981959894e-13</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>2.043330403730885e-13</v>
+        <v>2.044445956340028e-13</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>3.002007259813149e-13</v>
+        <v>3.002795369576672e-13</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>6.043962508594194e-13</v>
+        <v>6.052117167730723e-13</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>6.055388172859446e-13</v>
+        <v>6.044331748654667e-13</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>5.409290151591247e-13</v>
+        <v>5.442745901120007e-13</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>4.25379471324724e-13</v>
+        <v>4.262694057759419e-13</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>2.918700008080702e-13</v>
+        <v>2.941520295336826e-13</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>4.406580628606274e-13</v>
+        <v>4.371231818461299e-13</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>8.757934076752513e-13</v>
+        <v>8.797344486976511e-13</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>7.314173220772392e-13</v>
+        <v>7.323777551104176e-13</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>4.779543161401135e-13</v>
+        <v>4.793710171603096e-13</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>2.998642730257741e-13</v>
+        <v>3.006271113258006e-13</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>1.442240556043945e-13</v>
+        <v>1.433917347894709e-13</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>9.954075214341368e-14</v>
+        <v>9.978691777567556e-14</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>9.533812272957773e-14</v>
+        <v>9.517553643497261e-14</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>9.550852991561927e-14</v>
+        <v>9.513822332016469e-14</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>9.087904257903242e-14</v>
+        <v>9.04350705134737e-14</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>9.143760585820094e-14</v>
+        <v>9.181830356141026e-14</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>8.765531121198101e-14</v>
+        <v>8.778959886367451e-14</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>8.424968327206857e-14</v>
+        <v>8.464491779121579e-14</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>8.579933117245392e-14</v>
+        <v>8.514652266526573e-14</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>8.57505063136236e-14</v>
+        <v>8.588254932066513e-14</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>8.368676827030981e-14</v>
+        <v>8.309728810941664e-14</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>8.06311737667246e-14</v>
+        <v>8.062265616956952e-14</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>8.245538639158575e-14</v>
+        <v>8.218446827183974e-14</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>7.67604258287532e-14</v>
+        <v>7.66559934463008e-14</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>7.810501153831891e-14</v>
+        <v>7.782438770994634e-14</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>7.708064211309506e-14</v>
+        <v>7.682440407212994e-14</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>7.783216432773115e-14</v>
+        <v>7.840489720942146e-14</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>8.183523670660309e-14</v>
+        <v>8.217534089510025e-14</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>7.620042436752826e-14</v>
+        <v>7.655530677242209e-14</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>7.691435334262823e-14</v>
+        <v>7.71526372412653e-14</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>7.408877575372786e-14</v>
+        <v>7.434337894058214e-14</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>7.714032391264339e-14</v>
+        <v>7.698459408590884e-14</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>7.274519389683297e-14</v>
+        <v>7.26209324748544e-14</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>7.131482839025743e-14</v>
+        <v>7.149714881336144e-14</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>7.550376584286308e-14</v>
+        <v>7.575295039063657e-14</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>7.870660140665171e-14</v>
+        <v>7.883784984378488e-14</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>8.788010940579989e-14</v>
+        <v>8.829750237858118e-14</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>8.712494764267194e-14</v>
+        <v>8.705667946046579e-14</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>1.065766051131088e-13</v>
+        <v>1.067643331985184e-13</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>1.651822775967347e-13</v>
+        <v>1.664120535797727e-13</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>2.223668313065921e-13</v>
+        <v>2.222802369197907e-13</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>2.186745754236802e-13</v>
+        <v>2.185051285029775e-13</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>2.039581912227538e-13</v>
+        <v>2.048319270161351e-13</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>1.961653463336288e-13</v>
+        <v>1.979361185775893e-13</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>1.916927168404889e-13</v>
+        <v>1.911694237913723e-13</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>1.776672557700361e-13</v>
+        <v>1.78262154717548e-13</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>1.579246759320573e-13</v>
+        <v>1.580373862345217e-13</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>1.151268818203857e-13</v>
+        <v>1.159290370141977e-13</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>8.100520074596089e-14</v>
+        <v>8.113048290565303e-14</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>1.516952241427639e-13</v>
+        <v>1.519039112844105e-13</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>1.441445699139441e-13</v>
+        <v>1.450088841501954e-13</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>1.450071587938259e-13</v>
+        <v>1.448886026720832e-13</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>1.247444240265802e-13</v>
+        <v>1.249925908438505e-13</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>1.222345894553851e-13</v>
+        <v>1.221760138133299e-13</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>2.136880758306105e-13</v>
+        <v>2.138950493969168e-13</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>2.753657157516699e-13</v>
+        <v>2.760189409767547e-13</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>2.63939745898657e-13</v>
+        <v>2.64282900098642e-13</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>2.655551065901633e-13</v>
+        <v>2.652472453618688e-13</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>2.588984761534285e-13</v>
+        <v>2.595501334724165e-13</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>2.602930089425977e-13</v>
+        <v>2.606609538105729e-13</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>4.305528018143469e-13</v>
+        <v>4.310296671988162e-13</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>4.530109073422423e-13</v>
+        <v>4.536246980720002e-13</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>4.21157665056746e-13</v>
+        <v>4.216664773580366e-13</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>4.019081049341165e-13</v>
+        <v>4.028396283614186e-13</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>4.002273743526698e-13</v>
+        <v>4.001245910273056e-13</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>3.769578506618246e-13</v>
+        <v>3.776398850161863e-13</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>3.493191123176775e-13</v>
+        <v>3.49790600887492e-13</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>2.79015886331131e-13</v>
+        <v>2.794146958262264e-13</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>1.932981028003667e-13</v>
+        <v>1.932322745639373e-13</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>1.073358932757531e-13</v>
+        <v>1.073759129871089e-13</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>1.125106021854884e-13</v>
+        <v>1.124944129649756e-13</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>6.019066329811242e-14</v>
+        <v>6.037086032110422e-14</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>5.27475921357224e-14</v>
+        <v>5.264835745692711e-14</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>5.461775688484179e-14</v>
+        <v>5.456497202502443e-14</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>5.344266746723519e-14</v>
+        <v>5.357643442131591e-14</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>5.432456189353731e-14</v>
+        <v>5.469125981200089e-14</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>5.594667086906777e-14</v>
+        <v>5.592328085207181e-14</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>5.611283109167987e-14</v>
+        <v>5.587136506108248e-14</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>5.786955872222442e-14</v>
+        <v>5.783824268071359e-14</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>6.024794882657989e-14</v>
+        <v>6.054962908113822e-14</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>5.674033528778694e-14</v>
+        <v>5.713742859118823e-14</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>5.978235567399684e-14</v>
+        <v>5.996994651131305e-14</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>7.036072453570594e-14</v>
+        <v>7.044735615798515e-14</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>9.181498821107539e-14</v>
+        <v>9.198679374729845e-14</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>1.267990326246953e-13</v>
+        <v>1.27131473188522e-13</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>1.348444314443194e-13</v>
+        <v>1.351126985330604e-13</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>1.816043445342491e-13</v>
+        <v>1.816649582206648e-13</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>2.268221654030355e-13</v>
+        <v>2.269434536697568e-13</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>2.316469746462726e-13</v>
+        <v>2.316400959234452e-13</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>2.414431421418948e-13</v>
+        <v>2.410460150469323e-13</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>2.708719896583377e-13</v>
+        <v>2.711580500589868e-13</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>3.576707927526296e-13</v>
+        <v>3.572235938593327e-13</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>4.145515802923177e-13</v>
+        <v>4.158137776764172e-13</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>5.186341658944098e-13</v>
+        <v>5.185775830567058e-13</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>5.897006799041427e-13</v>
+        <v>5.909535717503643e-13</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>5.595969263785054e-13</v>
+        <v>5.593904871156971e-13</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>5.456874273556284e-13</v>
+        <v>5.463289985767131e-13</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>5.275734844181526e-13</v>
+        <v>5.280630198448668e-13</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>4.064870500222267e-13</v>
+        <v>4.06952749264982e-13</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>2.963189180822192e-13</v>
+        <v>2.965634363354611e-13</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>2.044739486653644e-13</v>
+        <v>2.045226918469349e-13</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>1.35359365179107e-13</v>
+        <v>1.35307307526838e-13</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>9.219299060715542e-14</v>
+        <v>9.234491092317631e-14</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>6.800019507632837e-14</v>
+        <v>6.818624836125846e-14</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>5.992895876642789e-14</v>
+        <v>6.005459463771059e-14</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>5.33731136673665e-14</v>
+        <v>5.357435309921709e-14</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>5.310921456098731e-14</v>
+        <v>5.315837474820504e-14</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>4.64719533232558e-14</v>
+        <v>4.65087754937291e-14</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>4.531998482455974e-14</v>
+        <v>4.538199414817405e-14</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>4.471922006063043e-14</v>
+        <v>4.468011774243847e-14</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>4.637420905914646e-14</v>
+        <v>4.659790602108986e-14</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>4.303438351562794e-14</v>
+        <v>4.293822955741998e-14</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>5.475973286754249e-14</v>
+        <v>5.469471623268274e-14</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>5.25649311258635e-14</v>
+        <v>5.288812248172699e-14</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>5.154031851316537e-14</v>
+        <v>5.146788570685382e-14</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>5.08161670420562e-14</v>
+        <v>5.078857056764788e-14</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>4.974049884601251e-14</v>
+        <v>4.974804440475952e-14</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>4.957760193110059e-14</v>
+        <v>4.962605859813154e-14</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>4.897256229818323e-14</v>
+        <v>4.887776524312776e-14</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>4.226806628673906e-14</v>
+        <v>4.23197536286219e-14</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>3.48080126066154e-14</v>
+        <v>3.498915849382029e-14</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>3.271197974217732e-14</v>
+        <v>3.280830545104671e-14</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>3.395786740373841e-14</v>
+        <v>3.390107392010573e-14</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>3.249393374740622e-14</v>
+        <v>3.25687296749006e-14</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>3.165292127250688e-14</v>
+        <v>3.159596204970195e-14</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>3.077304545137325e-14</v>
+        <v>3.085707639796246e-14</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>3.060086721819469e-14</v>
+        <v>3.073296570941359e-14</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>3.080289593487688e-14</v>
+        <v>3.083931123010817e-14</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>2.916038238831688e-14</v>
+        <v>2.915439450472429e-14</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>2.664044133412172e-14</v>
+        <v>2.661231747624467e-14</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>2.65034481510176e-14</v>
+        <v>2.654308286889776e-14</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>2.7413442315163e-14</v>
+        <v>2.742245119043343e-14</v>
       </c>
     </row>
   </sheetData>
